--- a/Data/Uso da net em 2015.xlsx
+++ b/Data/Uso da net em 2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafas\Documents\GitHub\SistemasFuzzy\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F993FDB6-1FBD-4BCC-96FA-D1FB910AD0D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14D2E1-DF8E-4FEB-8139-179952570B01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{5B7B29CF-3FDE-4735-B301-1190EAB25B29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Indeterminado</t>
+  </si>
+  <si>
+    <t>Regiao/Instrução</t>
   </si>
 </sst>
 </file>
@@ -646,14 +649,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8ADB34-BAE7-4580-BA29-19D883B82234}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
